--- a/biology/Botanique/Parc_de_l'Arrou/Parc_de_l'Arrou.xlsx
+++ b/biology/Botanique/Parc_de_l'Arrou/Parc_de_l'Arrou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Arrou</t>
+          <t>Parc_de_l'Arrou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc de l’Arrou est un parc urbain public situé dans l’ouest de Blois, dans le Loir-et-Cher, en France.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Arrou</t>
+          <t>Parc_de_l'Arrou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce parc de 44 hectares[1] se trouve au carrefour des lieux suivants :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce parc de 44 hectares se trouve au carrefour des lieux suivants :
 à l’ouest, le lac de la Pinçonnière et la forêt domaniale de Blois ;
-au nord, les quartiers de la Pinçonnière et de la ZUP[2] ;
+au nord, les quartiers de la Pinçonnière et de la ZUP ;
 à l’est, de la rue Fénelon ;
 au sud, par la route de Château-Renault.
-D’ouest en est, le parc constitue le vallon de l’Arrou, une petite rivière blésoise dont le cours n’est à l’air libre que dans cet espace vert[3]. Aussi, le parc constitue une coulée verte entre le quartier de la Gare et la forêt de Blois[4].
+D’ouest en est, le parc constitue le vallon de l’Arrou, une petite rivière blésoise dont le cours n’est à l’air libre que dans cet espace vert. Aussi, le parc constitue une coulée verte entre le quartier de la Gare et la forêt de Blois.
 Le parc est muni de jeux pour enfants.
-Dans le parc, se trouve également la ferme pédagogique de Brisebarre, depuis 2007[5].
+Dans le parc, se trouve également la ferme pédagogique de Brisebarre, depuis 2007.
 </t>
         </is>
       </c>
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_de_l%27Arrou</t>
+          <t>Parc_de_l'Arrou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +565,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’aménagement du parc est relativement récent, puisqu’il date de 1976. En effet, deux ans plus tôt, la municipalité de Blois a décidé l’établissement d’un poumon vert pour faire face à la croissance des zones pavillonnaires aux alentours[6]. 
-Les plaines du val de l'Arrou ont pendant longtemps été consacrées à l'agriculture. La dernière ferme ayant existé est celle de Brisebarre, que la municipalité a racheté dans les années 1980. L'ancienne ferme de Brisebarre a été rénovée en 2007 en tant que ferme pédagogique du nom de Maison du Parc[7]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’aménagement du parc est relativement récent, puisqu’il date de 1976. En effet, deux ans plus tôt, la municipalité de Blois a décidé l’établissement d’un poumon vert pour faire face à la croissance des zones pavillonnaires aux alentours. 
+Les plaines du val de l'Arrou ont pendant longtemps été consacrées à l'agriculture. La dernière ferme ayant existé est celle de Brisebarre, que la municipalité a racheté dans les années 1980. L'ancienne ferme de Brisebarre a été rénovée en 2007 en tant que ferme pédagogique du nom de Maison du Parc. 
 </t>
         </is>
       </c>
